--- a/celticnations/data/Image Credit.xlsx
+++ b/celticnations/data/Image Credit.xlsx
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
